--- a/biology/Botanique/Anthaenantia/Anthaenantia.xlsx
+++ b/biology/Botanique/Anthaenantia/Anthaenantia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Anthaenantia est un genre de plantes monocotylédones de la famille des Poaceae (graminées), sous-famille des Panicoideae, originaire d'Amérique du Nord et du Sud, qui comprend trois à cinq espèces acceptées selon les auteurs.
@@ -513,10 +525,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique « Anthaenantia » dérive de deux racines grecques : ἄνθος (anthos), « fleur », et ἐναντίος (enantios), « opposé, contrarié ». Ce nom forgé par Palisot de Beauvois fait référence à la position des glumelles (paléole et lemme) du fleuron stérile qui sont « situées dans une position opposée et croisée » avec celles du fleuron fertile[3],[4].
-A. Palisot de Beauvois a utilisé à l'origine trois variantes orthographiques, « Anthenantia », « Anthaenantia » et « Anthenanthia » pour désigner ce genre. Selon Clayton et Renvoize (Genera graminum : grasses of the world, 1986), seule la première  serait correcte sur le plan étymologique[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique « Anthaenantia » dérive de deux racines grecques : ἄνθος (anthos), « fleur », et ἐναντίος (enantios), « opposé, contrarié ». Ce nom forgé par Palisot de Beauvois fait référence à la position des glumelles (paléole et lemme) du fleuron stérile qui sont « situées dans une position opposée et croisée » avec celles du fleuron fertile,.
+A. Palisot de Beauvois a utilisé à l'origine trois variantes orthographiques, « Anthenantia », « Anthaenantia » et « Anthenanthia » pour désigner ce genre. Selon Clayton et Renvoize (Genera graminum : grasses of the world, 1986), seule la première  serait correcte sur le plan étymologique.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (5 juin 2018)[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (5 juin 2018) :
 Anthenantia lanata   (Kunth) Benth.
 Anthenantia rufa (Elliott) Schult.
 Anthenantia texana Kral
